--- a/data/financial_statements/soci/SWK.xlsx
+++ b/data/financial_statements/soci/SWK.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -140,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -195,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -505,132 +616,132 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>4119600000</v>
+        <v>4120000000</v>
       </c>
       <c r="C2">
         <v>4393000000</v>
@@ -639,10 +750,10 @@
         <v>4448000000</v>
       </c>
       <c r="E2">
-        <v>4317800000</v>
+        <v>4068000000</v>
       </c>
       <c r="F2">
-        <v>3779700000</v>
+        <v>4263000000</v>
       </c>
       <c r="G2">
         <v>3798900000</v>
@@ -748,11 +859,11 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>0.08989999999999999</v>
+        <v>-0.0335</v>
       </c>
       <c r="C3">
         <v>0.1564</v>
@@ -761,10 +872,10 @@
         <v>0.1954</v>
       </c>
       <c r="E3">
-        <v>0.4733</v>
+        <v>0.3881</v>
       </c>
       <c r="F3">
-        <v>-0.0183</v>
+        <v>0.1072</v>
       </c>
       <c r="G3">
         <v>0.207</v>
@@ -870,23 +981,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>3101500000</v>
+        <v>3114000000</v>
       </c>
       <c r="C4">
-        <v>3185900000</v>
+        <v>3210000000</v>
       </c>
       <c r="D4">
-        <v>3142600000</v>
+        <v>3238000000</v>
       </c>
       <c r="E4">
-        <v>3088800000</v>
+        <v>2884000000</v>
       </c>
       <c r="F4">
-        <v>2564100000</v>
+        <v>2857000000</v>
       </c>
       <c r="G4">
         <v>2437100000</v>
@@ -992,23 +1103,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1018100000</v>
+        <v>1006000000</v>
       </c>
       <c r="C5">
-        <v>1207100000</v>
+        <v>1183000000</v>
       </c>
       <c r="D5">
-        <v>1305400000</v>
+        <v>1211000000</v>
       </c>
       <c r="E5">
-        <v>1229000000</v>
+        <v>1184000000</v>
       </c>
       <c r="F5">
-        <v>1215600000</v>
+        <v>1406000000</v>
       </c>
       <c r="G5">
         <v>1361800000</v>
@@ -1114,8 +1225,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>799000000</v>
@@ -1130,7 +1241,7 @@
         <v>976799900</v>
       </c>
       <c r="F6">
-        <v>770800000</v>
+        <v>883000000</v>
       </c>
       <c r="G6">
         <v>772000000</v>
@@ -1236,8 +1347,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>72000000</v>
@@ -1358,8 +1469,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>90000000</v>
@@ -1399,23 +1510,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>91700000</v>
+        <v>15000000</v>
       </c>
       <c r="C9">
-        <v>78200000</v>
+        <v>7000000</v>
       </c>
       <c r="D9">
-        <v>54700000</v>
+        <v>3000000</v>
       </c>
       <c r="E9">
-        <v>45800000</v>
+        <v>2000000</v>
       </c>
       <c r="F9">
-        <v>45600000</v>
+        <v>2000000</v>
       </c>
       <c r="G9">
         <v>46500000</v>
@@ -1521,23 +1632,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-76300000</v>
+        <v>61000000</v>
       </c>
       <c r="C10">
-        <v>-71700000</v>
+        <v>125000000</v>
       </c>
       <c r="D10">
-        <v>-51900000</v>
+        <v>-14000000</v>
       </c>
       <c r="E10">
-        <v>24200000</v>
+        <v>125000000</v>
       </c>
       <c r="F10">
-        <v>-43400000</v>
+        <v>-15000000</v>
       </c>
       <c r="G10">
         <v>-43800000</v>
@@ -1643,8 +1754,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E11">
         <v>3000000</v>
@@ -1684,23 +1795,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>-4300000</v>
+        <v>-4000000</v>
       </c>
       <c r="C12">
-        <v>15900000</v>
+        <v>16000000</v>
       </c>
       <c r="D12">
-        <v>178500000</v>
+        <v>179000000</v>
       </c>
       <c r="E12">
-        <v>203100000</v>
+        <v>161000000</v>
       </c>
       <c r="F12">
-        <v>369200000</v>
+        <v>404000000</v>
       </c>
       <c r="G12">
         <v>495400000</v>
@@ -1806,23 +1917,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>-40900000</v>
+        <v>-41000000</v>
       </c>
       <c r="C13">
-        <v>-62800000</v>
+        <v>-63000000</v>
       </c>
       <c r="D13">
-        <v>22900000</v>
+        <v>23000000</v>
       </c>
       <c r="E13">
-        <v>-120900000</v>
+        <v>-128000000</v>
       </c>
       <c r="F13">
-        <v>-500000</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>67300000</v>
@@ -1928,8 +2039,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>36600000</v>
@@ -2050,8 +2161,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="AD15">
         <v>-700000</v>
@@ -2088,8 +2199,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="G16">
         <v>4800000</v>
@@ -2117,8 +2228,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C17">
         <v>100000</v>
@@ -2179,23 +2290,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>36600000</v>
+        <v>845000000</v>
       </c>
       <c r="C18">
-        <v>78600000</v>
+        <v>88000000</v>
       </c>
       <c r="D18">
-        <v>180100000</v>
+        <v>176000000</v>
       </c>
       <c r="E18">
-        <v>292000000</v>
+        <v>329000000</v>
       </c>
       <c r="F18">
-        <v>379600000</v>
+        <v>415000000</v>
       </c>
       <c r="G18">
         <v>428700000</v>
@@ -2301,23 +2412,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>5.85</v>
+        <v>5.5</v>
       </c>
       <c r="C19">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="D19">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="E19">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="F19">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="G19">
         <v>2.87</v>
@@ -2423,8 +2534,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>5.5</v>
@@ -2439,7 +2550,7 @@
         <v>1.99</v>
       </c>
       <c r="F20">
-        <v>2.56</v>
+        <v>2.51</v>
       </c>
       <c r="G20">
         <v>2.81</v>
@@ -2545,23 +2656,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>144379000</v>
+        <v>144000000</v>
       </c>
       <c r="C21">
-        <v>145353000</v>
+        <v>145000000</v>
       </c>
       <c r="D21">
-        <v>155433000</v>
+        <v>155000000</v>
       </c>
       <c r="E21">
-        <v>158760000</v>
+        <v>160000000</v>
       </c>
       <c r="F21">
-        <v>159444000</v>
+        <v>159000000</v>
       </c>
       <c r="G21">
         <v>158644000</v>
@@ -2667,23 +2778,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>153600000</v>
+        <v>154000000</v>
       </c>
       <c r="C22">
-        <v>154814000</v>
+        <v>155000000</v>
       </c>
       <c r="D22">
-        <v>165413000</v>
+        <v>165000000</v>
       </c>
       <c r="E22">
-        <v>165024000</v>
+        <v>165000000</v>
       </c>
       <c r="F22">
-        <v>165336000</v>
+        <v>165000000</v>
       </c>
       <c r="G22">
         <v>165187000</v>
@@ -2789,23 +2900,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.2471</v>
+        <v>0.2442</v>
       </c>
       <c r="C23">
-        <v>0.2748</v>
+        <v>0.2693</v>
       </c>
       <c r="D23">
-        <v>0.2935</v>
+        <v>0.2723</v>
       </c>
       <c r="E23">
-        <v>0.2846</v>
+        <v>0.2911</v>
       </c>
       <c r="F23">
-        <v>0.3216</v>
+        <v>0.3298</v>
       </c>
       <c r="G23">
         <v>0.3585</v>
@@ -2911,8 +3022,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.0175</v>
@@ -2924,10 +3035,10 @@
         <v>0.0518</v>
       </c>
       <c r="E24">
-        <v>0.0414</v>
+        <v>0.044</v>
       </c>
       <c r="F24">
-        <v>0.1092</v>
+        <v>0.0968</v>
       </c>
       <c r="G24">
         <v>0.1419</v>
@@ -3033,8 +3144,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>-0.001</v>
@@ -3043,13 +3154,13 @@
         <v>0.0036</v>
       </c>
       <c r="D25">
-        <v>0.0401</v>
+        <v>0.0402</v>
       </c>
       <c r="E25">
-        <v>0.047</v>
+        <v>0.0396</v>
       </c>
       <c r="F25">
-        <v>0.0977</v>
+        <v>0.0948</v>
       </c>
       <c r="G25">
         <v>0.1304</v>
@@ -3155,23 +3266,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>0.0089</v>
+        <v>0.2051</v>
       </c>
       <c r="C26">
-        <v>0.0179</v>
+        <v>0.02</v>
       </c>
       <c r="D26">
-        <v>0.0405</v>
+        <v>0.0396</v>
       </c>
       <c r="E26">
-        <v>0.06759999999999999</v>
+        <v>0.0809</v>
       </c>
       <c r="F26">
-        <v>0.1004</v>
+        <v>0.0973</v>
       </c>
       <c r="G26">
         <v>0.1128</v>
@@ -3277,23 +3388,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>210000000</v>
+        <v>385000000</v>
       </c>
       <c r="C27">
-        <v>231000100</v>
+        <v>507000000</v>
       </c>
       <c r="D27">
-        <v>374099900</v>
+        <v>473000000</v>
       </c>
       <c r="E27">
-        <v>325400900</v>
+        <v>513000000</v>
       </c>
       <c r="F27">
-        <v>556799600</v>
+        <v>668000000</v>
       </c>
       <c r="G27">
         <v>681600000</v>
@@ -3399,8 +3510,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>72000000</v>
@@ -3521,8 +3632,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>36600000</v>
@@ -3643,8 +3754,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D30">
         <v>24600000</v>
@@ -3690,23 +3801,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>36600000</v>
+        <v>37000000</v>
       </c>
       <c r="C31">
-        <v>78700000</v>
+        <v>79000000</v>
       </c>
       <c r="D31">
-        <v>180200000</v>
+        <v>156000000</v>
       </c>
       <c r="E31">
         <v>292000000</v>
       </c>
       <c r="F31">
-        <v>379500000</v>
+        <v>415000000</v>
       </c>
       <c r="G31">
         <v>432500000</v>
@@ -3812,8 +3923,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.25</v>
@@ -3934,8 +4045,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>0.24</v>
@@ -4056,8 +4167,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>5.26</v>
@@ -4118,8 +4229,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>5.6</v>
@@ -4180,8 +4291,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>0.2535</v>
@@ -4302,8 +4413,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>0.2383</v>
@@ -4424,8 +4535,8 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
         <v>153600000</v>
@@ -4546,23 +4657,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>0.051</v>
+        <v>0.0934</v>
       </c>
       <c r="C39">
-        <v>0.0526</v>
+        <v>0.1154</v>
       </c>
       <c r="D39">
-        <v>0.08409999999999999</v>
+        <v>0.1063</v>
       </c>
       <c r="E39">
-        <v>0.07539999999999999</v>
+        <v>0.1261</v>
       </c>
       <c r="F39">
-        <v>0.1473</v>
+        <v>0.1567</v>
       </c>
       <c r="G39">
         <v>0.1794</v>
@@ -4668,8 +4779,8 @@
       </c>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B40">
         <v>-0.1033</v>
@@ -4681,10 +4792,10 @@
         <v>-0.279</v>
       </c>
       <c r="E40">
-        <v>0.0861</v>
+        <v>0.0914</v>
       </c>
       <c r="F40">
-        <v>0.0012</v>
+        <v>0.0011</v>
       </c>
       <c r="G40">
         <v>0.117</v>
